--- a/PaperPilot/All_EachPageTextwithFitz_4.xlsx
+++ b/PaperPilot/All_EachPageTextwithFitz_4.xlsx
@@ -1,43 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\financerpa\Desktop\PaperPilot\PaperPilot\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEA816D-D650-4D1E-AD34-C4CF9C2714FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$68</definedName>
-  </definedNames>
-  <calcPr calcId="0"/>
-</workbook>
+  <x:bookViews>
+    <x:workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$68</x:definedName>
+  </x:definedNames>
+  <x:calcPr calcId="0"/>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
-  <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>Check</t>
-  </si>
-  <si>
-    <t>3045_107</t>
-  </si>
-  <si>
-    <t>(二)獨立董事對利害關係議案迴避之執行情形,應敘明獨立董事姓名、議案內容、應利益迴避原
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+  <x:si>
+    <x:t>Key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Check</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3045_107</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(二)獨立董事對利害關係議案迴避之執行情形,應敘明獨立董事姓名、議案內容、應利益迴避原
 因以及參與表決情形:
 審計委員會
 應迴避獨立
@@ -118,13 +118,13 @@
 明
 2.會計師針對與會人員所提問題
 進行討論及溝通
-29</t>
-  </si>
-  <si>
-    <t>5703_110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
+29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5703_110</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
 43
 (十五)董事及監察人進修情形
 職稱
@@ -279,13 +279,13 @@
 (RPA)提升內部
 控制效能
 6
-</t>
-  </si>
-  <si>
-    <t>5876_110</t>
-  </si>
-  <si>
-    <t>在存匯業務方面，持續優化存款結構，降低資金成本，積極推廣活期性與零售性存款，並加強
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5876_110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>在存匯業務方面，持續優化存款結構，降低資金成本，積極推廣活期性與零售性存款，並加強
 與證券商及電支機構之業務合作，推廣分戶帳業務及存款帳戶綁定支付業務；在數位金融方面，持
 續推動數位轉型，形塑數位文化，加強培育數位人才，成立跨功能型團隊，規劃設立「FinTech
 Space」創新發展基地，以中小企業為核心打造場景金融，升級數位平台，建構新數據分析平台，導
@@ -344,13 +344,13 @@
 援系統、風險管理資料超市等，以期達到優化資安、風控與法遵之目標；另將導入機器人流程自動化(RPA)，持續
 擴建資料市集(DataMart)，以提升作業效率；尤其在金融科技持續發展及Covid-19之衝擊下，改變現有消費與商
 業模式，本行將加強建構數位金融生態圈，持續發展OPENAPI、區塊鏈(BlockChain)等技術，以達到跨業與跨領
-域結盟擴展商機之目的。</t>
-  </si>
-  <si>
-    <t>5876_111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105
+域結盟擴展商機之目的。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5876_111</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">105
 www.scsb.com.tw
 營運概況
 3.本行未來研究發展計畫，在服務據點方面，將繼續評估國內外設立服務據點之可行性；在產品方面，將繼續研發
@@ -419,13 +419,13 @@
 進行分類，定期辦理電腦系統資訊安全評估，以確保資訊系統之穩定性及安全性。
 為維持業務持續運作，系統除同地備援外，並依每半年辦理一次異地備援復原演練程序，以確保備援機制之有
 效性。
-</t>
-  </si>
-  <si>
-    <t>5880_108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">持續關注調整銷售結構，期使基金、保險均衡發展，精選具特色、差異化及符合未來投資趨勢之商
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5880_108</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">持續關注調整銷售結構，期使基金、保險均衡發展，精選具特色、差異化及符合未來投資趨勢之商
 品，俾協助客戶做好資產配置規劃暨提高本行理財資產收益率，創造客我之雙贏。
 結合客群屬性數據分析結果加以應用，以辨識及發掘潛力目標客群，進而擬定差異化行銷策略，增
 加理財客戶數。
@@ -470,13 +470,13 @@
 報酬。
 75
 2019ANNUALREPORT
-</t>
-  </si>
-  <si>
-    <t>5880_109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.創新金融服務方面
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5880_109</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">5.創新金融服務方面
 (1)銀行子公司於109年導入機器人流程自動化（RoboticProcessAutomation，RPA），包含開戶、信用
 卡申請等12種業務，已上線共計18條RPA流程。
 (2)銀行子公司建置人工智慧(自然語言處理，NaturalLanguageProcessing，NLP)為基礎之「AI社群經
@@ -564,13 +564,13 @@
 企業籌資建議工具之一，爭取具利基之承銷業務，增裕營收。
 77
 伍｜營運概況/OperationsOverview
-</t>
-  </si>
-  <si>
-    <t>5880_110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">精進社群通路之人工智慧，優化i秘書NLP（自然語言處理）技術，創造良好的社群用戶互動與體
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5880_110</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">精進社群通路之人工智慧，優化i秘書NLP（自然語言處理）技術，創造良好的社群用戶互動與體
 驗，擴大施行機器人流程自動化（RPA），撙節分行的人力成本，打造數位營運的基礎能力。
 完善數位金融環境，建置新一代雙語無障礙官方網站並透過UI/UX方式重新打造網路銀行介面，持
 續優化ATM、行動網銀APP服務功能，強化客戶接觸點體驗。
@@ -614,13 +614,13 @@
 對已拍定尚未分配案件，積極聯繫法院儘速分配及領回案款。
 80
 2021ANNUALREPORT
-</t>
-  </si>
-  <si>
-    <t>5880_111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">（6）數位金融業務
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5880_111</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">（6）數位金融業務
 關注國內外創新技術發展，推進CoLAB創新實驗室，賡續以教育訓練方式、顧問協作及相關產官學
 鏈結活動產出創意執行方案，創造商業創新價值；加強金融專利布局，將投入金融科技之創新能量
 轉化為專利權，並持續重視智慧財產管理，以健全內部金融科技研究發展開發管理及專利管理。
@@ -663,19 +663,117 @@
 提供流通債券雙向報價，掌握投資雙方買賣意願，建立交易平臺提高成交機率獲取資本利得。
 80
 2022ANNUALREPORT
-</t>
-  </si>
-  <si>
-    <t>5903_108</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>5903_109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">四、會計師公費資訊：
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5903_108</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">42
+42
+四、會計師公費資訊：
+(一)會計師公費資訊及級距表
+會計師公費資訊級距表
+事務所名稱
+會計師姓名
+查核期間
+備
+註
+資誠聯合會計師事務所
+張志安
+吳郁隆
+2019.1.1~2019.12.31
+－
+金額單位：新台幣仟元
+公費項目
+金額級距
+審計公費
+非審計公費
+合計
+1
+低於2,000仟元
+2
+2,000仟元（含）～4,000仟元
+3,171
+3,171
+3
+4,000仟元（含）～6,000仟元
+5,510
+5,510
+4
+6,000仟元（含）～8,000仟元
+5
+8,000仟元（含）～10,000仟元
+6
+10,000仟元（含）以上
+(二)給付簽證會計師、簽證會計師所屬事務所及其關係企業之非審計公費為審計公費之四分之
+一以上者，應揭露審計與非審計公費金額及非審計服務內容：
+金額單位：新台幣仟元
+事務所
+名
+稱
+會計師
+姓
+名
+審計
+公費
+非審計公費
+會計師
+查核期間
+備
+註
+制度
+設計
+工商
+登記
+人力
+資源
+其他
+小計
+資誠聯合
+會計師
+事務所
+張志安
+5,510
+－
+－
+－
+3,171
+3,171
+2019
+年度
+非審計公費之內
+容分別為：
+(1)移轉訂價服務
+公費610仟元
+(2)CSR
+專案費
+1,051仟元
+(3)稅務分析諮詢
+服務費300仟
+元
+(4)RPA專案服務
+費800仟元
+(5)其他簽證公費
+410仟元
+吳郁隆
+(三)更換會計師事務所且更換年度所給付之審計公費較更換前一年度之審計公費減少者，應揭
+露更換前後審計公費金額及原因：
+不適用。
+(四)審計公費較前一年度減少達百分之十以上者，應揭露審計公費減少金額、比例及原因：
+不適用。
+五、更換會計師資訊：
+本公司最近二年度及其期後期間未有更換會計師之情形。
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>V</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5903_109</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">四、會計師公費資訊：
 (一)會計師公費資訊及級距表
 會計師公費資訊級距表
 事務所名稱
@@ -765,13 +863,13 @@
 (四)審計公費較前一年度減少達百分之十以上者，應揭露審計公費減少金額、比例及原因：
 不適用。
 -45-
-</t>
-  </si>
-  <si>
-    <t>6015_108</t>
-  </si>
-  <si>
-    <t>1.本公司最近年度及截至年報刊印日為止,並未從事高風險、高槓桿投資、資金貸與他
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6015_108</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.本公司最近年度及截至年報刊印日為止,並未從事高風險、高槓桿投資、資金貸與他
 人、背書保證之情形。
 2.本公司從事衍生性商品交易業務之推展,除於商品設計時即充分考量市場狀況及可預
 估之風險因素,同時基於操作之穩健原則,亦將視市場狀況建立合理之避險部位,以
@@ -874,13 +972,13 @@
 無。
 3.從屬公司最近二年度及截至年報刊印日止,已判決確定或截至年報刊印日止尚在
 繫屬中之重大訴訟、非訟或行政爭訟事件,其結果可能對股東權益或證券價格有
--92-</t>
-  </si>
-  <si>
-    <t>6015_109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
+-92-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6015_109</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
 -92-
 1.本公司最近年度及截至年報刊印日為止，並未從事高風險、高槓桿投資、資金貸與他
 人、背書保證之情形。
@@ -991,13 +1089,13 @@
 1.公司最近二年度及截至年報刊印日止，已判決確定或截至年報刊印日止尚在繫屬
 中之重大訴訟、非訟或行政爭訟事件，其結果可能對股東權益或證券價格有重大
 影響者：無。
-</t>
-  </si>
-  <si>
-    <t>6015_110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-112-
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6015_110</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">-112-
 (二)從事高風險、高槓桿投資、資金貸與他人、背書保證及衍生性商品交易之政策、獲利
 或虧損之主要原因及未來因應措施
 1.本公司最近年度及截至年報刊印日為止，並未從事高風險、高槓桿投資、資金貸與他
@@ -1105,13 +1203,13 @@
 近二年度及截至年報刊印日止，已判決確定或截至年報刊印日止尚在繫屬中之重
 大訴訟、非訟或行政爭訟事件，其結果可能對股東權益或證券價格有重大影響者：
 無。
-</t>
-  </si>
-  <si>
-    <t>6015_111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6015_111</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
 -111-
 3.通貨膨脹：
 本公司係屬證券服務業，通貨膨脹對本公司所營業務之收入與成本均屬正相關，且本
@@ -1222,13 +1320,13 @@
 及因應措施
 本公司董事或持股超過百分之十之大股東均長期、穩定持有本公司股票，持股結構並
 無大幅之變化，顯示本公司股權穩定並無相關之風險產生。
-</t>
-  </si>
-  <si>
-    <t>6023_109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">為提供香港客戶/機構法人及自營更快的海外行情串接服務，擬建置期貨香港
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6023_109</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">為提供香港客戶/機構法人及自營更快的海外行情串接服務，擬建置期貨香港
 子公司港交所DMA交易與行情接收服務環境。
 (6)RPA自動化流程系統導入案
 企業的數位發展，人工智慧與大數據應用分析將會是未來重要研究，流程機
@@ -1269,13 +1367,13 @@
 供關聯式分析的功能，能聚焦於檢視單一系統紀錄所無法凸顯的異常或威脅，
 及各異質平台產生的使用者活動軌跡紀錄，透過設定告警指標及與搭配系統數
 -150-
-</t>
-  </si>
-  <si>
-    <t>6023_110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">執行、檢討以及修改，在明確的分層負責機制下，透過電腦自動化程式控管，使每
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6023_110</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">執行、檢討以及修改，在明確的分層負責機制下，透過電腦自動化程式控管，使每
 一經過審核通過之交易策略以及執行人員承擔有限並可量化之風險，並在此風險承
 受範圍內追求交易利潤之極大化。
 從事自營交易必然面對在不利狀況下可能虧損之不確定因素，但穩定交易策略
@@ -1315,13 +1413,13 @@
 化與人力重複作業整合梳理，進而減少溝通成本同時大幅提高效率。
 (5)數位倉儲無紙化電子傳簽系統建置導入
 -161-
-</t>
-  </si>
-  <si>
-    <t>6023_111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">證：ISO14001環境管理系統、ISO14064-1溫室氣體查驗、ISO45001職業安
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6023_111</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">證：ISO14001環境管理系統、ISO14064-1溫室氣體查驗、ISO45001職業安
 全衛生管理、ISO20400永續採購指南、ISO14046水足跡盤查、ISO27001
 資訊安全管理、ISO10002客訴管理系統、BS10012PIMS個人資訊管理系
 統。
@@ -1427,13 +1525,13 @@
 東權益。將企業社會責任融入公司營運宗旨與服務管理模式，透過公司治理、
 公平待客、綠色金融、社會參與、健康職場等原則，落實企業永續經營目標。
 -144-
-</t>
-  </si>
-  <si>
-    <t>6112_107</t>
-  </si>
-  <si>
-    <t>(2)隱私與資安陸續法制化,產品安全備受重視:全球資安隱私與數據保護法令焦
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6112_107</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(2)隱私與資安陸續法制化,產品安全備受重視:全球資安隱私與數據保護法令焦
 點,已漸由關鍵資訊基礎設施保護,轉移到物聯網設備安全,例如:美國國家
 標準與技術研究院(NIST)在2018年發布管理草案,基於標準的物聯網設備安
 全測試準則即將問世;歐盟預計2019年通過數位安全法(CybersecurityAct)立
@@ -1463,13 +1561,13 @@
 值型通路商;而物流型通路商精於物流管理,所銷售之產品標準化程度高,其
 銷售政策首重存貨週轉率提高,國內物流型通路業者,以聯強電腦、精技電腦
 為代表。
-~56~</t>
-  </si>
-  <si>
-    <t>6112_111</t>
-  </si>
-  <si>
-    <t>執行情形
+~56~</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6112_111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>執行情形
 與上市上櫃公
 推動項目
 司永續發展實
@@ -1569,13 +1667,13 @@
 此同時也須確保機密與安全。IDC調查發現近五成的企業會在意放在雲上的數據是否被完全的
 保護,並且會關注數據中心所在的位置。在地緣政治考量下,未來數位主權不僅是國家級別在
 52
-2022AnnualReport</t>
-  </si>
-  <si>
-    <t>6173_107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">五、勞資關係
+2022AnnualReport</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6173_107</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">五、勞資關係
 (一)公司各項員工福利措施、進修、訓練、退休制度與其實施情形，以及勞
 資間之協議情形與各項員工權益維護情形：
 本公司為一高科技產業之公司，以創造最高利潤作為全體員工工作的規範，推
@@ -1623,13 +1721,13 @@
 重大金融弊案/發行人證券商證券交易所會計主管持續進修班/稽
 核人員應知的企業舞弊案例手法大揭密。
 -76-
-</t>
-  </si>
-  <si>
-    <t>6173_108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.防止添加硝酸溶劑時引起飛濺危
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6173_108</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">10.防止添加硝酸溶劑時引起飛濺危
 險物品腐蝕身體的危害風險，增設
 有機溶劑作業場所裝設液位控制
 器及警報設施。
@@ -1675,13 +1773,13 @@
 六個標準差/8D問題分析與解決/發行人證券商證券交易所會計
 主管持續進修班/稽核人員應知的企業舞弊案例手法大揭密。
 -77-
-</t>
-  </si>
-  <si>
-    <t>6183_111</t>
-  </si>
-  <si>
-    <t>掌握跨境購物成長商機,持續深化海運、空運快遞專區業界系統,提供通
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6183_111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>掌握跨境購物成長商機,持續深化海運、空運快遞專區業界系統,提供通
 關貨物即時資訊及稅單收據電子化服務,整合倉儲ALOT應用服務之加值服務,
 並導入RPA流程機器人服務等。藉由新加值服務,協助客戶提高貨物安全、提
 昇貨物進出倉效率及貨物配送之服務品質,並減少人力應用進而降低財務風險。
@@ -1805,13 +1903,13 @@
 的自主管理系統,滿足廠商進駐經濟特區作業資訊管理及海關通關資訊串接的需求。因
 應全球供應鏈重組,協助臺商返臺,進駐自由貿易港區或物流中心,持續提供包含自轉
 郵、保稅轉郵及ALOT應用服務推廣等經濟特區加值服務。
-~84~</t>
-  </si>
-  <si>
-    <t>6203_109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">董事及監察人進修之情形
+~84~</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6203_109</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">董事及監察人進修之情形
 職稱
 參加人員
 訓練課程
@@ -1936,13 +2034,13 @@
 109年第4季推動我國採用國際財務報導準則宣導會
 3
 -28-
-</t>
-  </si>
-  <si>
-    <t>6204_108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">教育訓練
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6204_108</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">教育訓練
 內部訓練
 外部訓練
 9、一般安全衛生教育訓練實
@@ -1992,13 +2090,13 @@
 29、108年第4季推動我國採用國際財
 務報導準則宣導說明會
 67
-</t>
-  </si>
-  <si>
-    <t>6214_108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6214_108</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
 貳、公司簡介
 民國108年
 精誠集團旗下奇唯科技發表全球第一套具標準醫學影像傳輸之「肌少症智能篩測儀」，打造長照與
@@ -2023,13 +2121,13 @@
 取得台灣數位典藏服務領導團隊宜誠資訊(股)公司近六成股權，未來將結合雙方資源與服務能量，
 持續協助客戶深化數據運用價值。
 -7-
-</t>
-  </si>
-  <si>
-    <t>6214_109</t>
-  </si>
-  <si>
-    <t>|貳、公司簡介
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6214_109</x:t>
+  </x:si>
+  <x:si>
+    <x:t>|貳、公司簡介
 投資宏誌科技(股)公司,共同打造智慧零售020創新服務,以完整零售業市場及產品佈局。
 投資敦新科技(股)公司,擴大產品代理組合,整合行銷通路。
 精誠集團旗下康和資訊系統取得鼎盛資科(股)公司98.59%股權,成為子公司,以佈局網路銀行市場。
@@ -2063,13 +2161,13 @@
 民國110年
 進駐台南沙崙智慧綠能科學城,串聯綠能產業生態系。
 截至年報刊
-印日</t>
-  </si>
-  <si>
-    <t>6214_110</t>
-  </si>
-  <si>
-    <t>|貳、公司簡介
+印日</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6214_110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>|貳、公司簡介
 民國108年
 精誠集團旗下奇唯科技發表全球第一套具標準醫學影像傳輸之「肌少症智能飾測儀」,打造長照與
 高齡友善照護環境。
@@ -2113,13 +2211,13 @@
 精誠集團旗下雲服務品牌「GARAOTUS」獲頒亞洲企業組織(EnterpriseAsia)舉辦的2021年IIA國際
 截至年報刊創新獎(InternationalInnovationAwards,IIA)。
 印日
-8.</t>
-  </si>
-  <si>
-    <t>6214_111</t>
-  </si>
-  <si>
-    <t>|貳、公司簡介
+8.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6214_111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>|貳、公司簡介
 民國108年
 精誠集團旗下奇唯科技發表全球第一套具標準醫學影像傳輸之「肌少症智能飾測儀」,打造長照與
 高齡友善照護環境。
@@ -2165,13 +2263,13 @@
 本公司及子公司精誠軟體服務、奇唯科技、精誠科技整合、泰鋒電腦及朋昶數位同獲台北市政府表
 揚為111年度「臺北市民間企業及團體綠色採購績優單位」。
 榮獲衛福部國健署111年度「健康職場認證-健康促進標章」、勞動部111年度工作生活平衡獎「友
-.7.</t>
-  </si>
-  <si>
-    <t>6216_110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33
+.7.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6216_110</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">33
 6.董事及監察人之進修情形：
 本公司董事及監察人均具備有相關之專業背景，對維持董事及監察人之專業知識相關課程
 亦進行不定期之進修，公司亦會不定期提出相關之進修資訊給予參考。
@@ -2240,13 +2338,13 @@
 形，逐步改善及落實維護股東權益、平等對待股東、強化董事會結構與運作、提升資訊
 透明度、落實企業社會責任等公司治理事項。
 註：運作情形不論勾選｢是｣或｢否｣，均應於摘要說明欄位敘明。
-</t>
-  </si>
-  <si>
-    <t>6218_108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6218_108</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">54 
 AI運算走向端雲共生(Edge/CloudAIMutualism):隨著演算法、
 晶片異質整合、記憶體內運算等技術的精進，將使得終端裝置的AI
 能力有顯著躍進。預期未來AI『推論』在終端裝置上將有明顯推
@@ -2288,13 +2386,13 @@
 到提升員工生產力與滿意度。預估至2021年底，台灣將有47.8%
 中小企業展開數位轉型。
 54
-</t>
-  </si>
-  <si>
-    <t>6218_110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6218_110</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">61 
 圖.企業在IT抗疫的策略(iThome2021調查)
 IThome調查各產業2021年在IT重點投資如下:
 2021年高科技業在七大IT重點投資中以資安居冠，平均
@@ -2362,13 +2460,13 @@
 修正決策。為加速決策數據的產出，醫院也藉AI來輔助。
 2021年調查發現，在醫院IT投資目標中資安雖仍穩坐第一
 (79.1%)，但「用AI強化分析與決策」排名第二，從2020年
-</t>
-  </si>
-  <si>
-    <t>6220_107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6220_107</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
 金。未來3年內，量子通訊商用化設備也將持續朝向低建置成本、高安全密鑰與
 具備長距離傳輸能力的量子中繼器為重要技術布局方向。預期將帶動其設備中包
 含量子加密晶片、非線性晶體與光學調變器等重要元件的需求，並開啟台灣光學
@@ -2413,13 +2511,13 @@
 然而受到記憶體頻寬限制，對需要大量的平行及矩陣運算的AI演算而言，將導致
 耗電與效率低落，包括IBM等許多廠商相繼推出AI晶片的創新性架構設計。
 ~52~
-</t>
-  </si>
-  <si>
-    <t>6221_107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6221_107</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
 75
 動偵測、回應與數位取證。然而，趨於嚴格的法遵環境、數位轉型帶來複雜的數
 據管理，對於企業的影響含括多個層面，企業對於資安風險承受程度也開始降
@@ -2456,13 +2554,13 @@
 響較大。在這一波變革中，IDC觀察到，為了更快速的回應市場，對話式平台將
 進一步與機器人流程自動化(RPA)整合，主要應用範疇將出現在五個領域:個人
 化建議/推薦、自動文件檢索、工作自動化、勞動力的增強與提升，以及娛樂應用
-</t>
-  </si>
-  <si>
-    <t>6221_108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6221_108</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
 81
 歷史資料轉變為融合動態即時情境，大幅提升人工智慧的預測能力；演算法將從
 功能導向轉變為情境導向，降低人為判斷誤失的可能性且提升應用的可用性；而
@@ -2500,13 +2598,13 @@
 挑戰，加上企業內外部各類結構與非結構資訊爆炸增長，使得企業開始重視工作
 流程的智慧化與自動化。IDC預期未來已為企業環境發展重心的RPA(Robotic
 ProcessAutomation)將開始朝向與人工智慧結合的IPA(IntelligentProcess
-</t>
-  </si>
-  <si>
-    <t>6263_109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6263_109</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">34
 評估項目
 運作情形
 與上市上
@@ -2657,13 +2755,13 @@
 32公司產品/競品教育訓練
 33如何應用「機器人流程自動化」(RPA)提
 升內部控制效能
-</t>
-  </si>
-  <si>
-    <t>6277_110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">壹、致股東報告書
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6277_110</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">壹、致股東報告書
 各位親愛的股東女士／先生：
 110年全球企業雖受到供應鏈供貨緊繃、運費上升、運輸塞港、新冠變種病毒蔓延等
 挑戰，宏正仍在穩健的經營策略下，繳出亮眼成績單，主攻之垂直市場包含智慧製造、政
@@ -2696,13 +2794,13 @@
 身以提高產線量能。此外，本公司去年度接連獲得Computex2021BestChoiceAward、日
 本Interop2021BestofShowAward『GrandPrize』與『SpecialPrize』、日本優良設計獎(Good
 -1-
-</t>
-  </si>
-  <si>
-    <t>6446_111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6446_111</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
 68
 日期
 重要決議事項
@@ -2770,13 +2868,13 @@
 全體出席董事無異議通過。
 全體出席董事無異議通過。
 全體出席董事無異議通過。
-</t>
-  </si>
-  <si>
-    <t>6613_109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6613_109</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
 64
 十、
 109年度董事及公司治理主管進修情形
@@ -2900,13 +2998,13 @@
 息
 3
 109.07.31
-</t>
-  </si>
-  <si>
-    <t>6669_110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">二、本年度(111年)營業計畫概要
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6669_110</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">二、本年度(111年)營業計畫概要
 (一)經營方針
 本公司除了維持主要客戶的市占率之外，為求本公司長期經營的穩定與成
 長，積極參與OCPGlobalSummit、CloudFest及O-RANPlugfest，展示本公司開發
@@ -2946,13 +3044,13 @@
 步前進，創造股東最大價值，追求永續發展的未來。
 董事長：林憲銘
 2
-</t>
-  </si>
-  <si>
-    <t>6689_109</t>
-  </si>
-  <si>
-    <t>(C)成本控管:視覺化的成本分析圖表、有效追蹤雲端使用狀況與花費,讓管
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6689_109</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(C)成本控管:視覺化的成本分析圖表、有效追蹤雲端使用狀況與花費,讓管
 理團隊立即做出相對應的商業決策;
 (D)一鍵產出雲端最佳實踐報表:包含費用優化報告、用量報告、高可用性報
 告、資訊安全報告、效能報告等等,使用者可自行輕鬆調整雲端環境。
@@ -2992,13 +3090,13 @@
 使用AWS的服務協助客戶建立數據平台與流程
 數據湖部署,將企業所有數據存儲在一個集中式存儲庫中,並能快速進行
 數據的探索以及分析
--55-</t>
-  </si>
-  <si>
-    <t>6689_110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">制和環境，當發生客戶佈署於雲端的服務異常或中斷時，可在設定的目標時
+-55-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6689_110</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">制和環境，當發生客戶佈署於雲端的服務異常或中斷時，可在設定的目標時
 間內自動恢復營運，減少業務中斷的損失。
 3.ECVSAPSolution
 企業資源規劃系統(EnterpriseResourcesPlanning,ERP)能管控各項關鍵
@@ -3039,13 +3137,13 @@
 7.智慧製造-生產數據自動化與戰情分析方案
 透過智慧化的資料擷取與非侵入式設備監控模組，可以達到機台及設備
 -66-
-</t>
-  </si>
-  <si>
-    <t>6689_111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">的7x24管控平台與流程。當客戶託管的雲端服務出現警示或偵測到威脅
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6689_111</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">的7x24管控平台與流程。當客戶託管的雲端服務出現警示或偵測到威脅
 時，專業的雲端工程師可協助客戶進行問題釐清與調查、威脅應變、系統
 修補等，降低損害風險。此外，伊雲谷MSP服務亦協助客戶建置跨雲的備
 援與災難復原機制和環境，當發生客戶佈署於雲端的服務異常或中斷時，
@@ -3078,13 +3176,13 @@
 產業升級與環境管理，透過物聯網的方式，串聯設備、感測器、大數據蒐
 集、雲端分析與診斷等技術，可有效達到產業升級與永續發展之目標。此
 -68-
-</t>
-  </si>
-  <si>
-    <t>6697_107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">協助導入軟體機器人(RPA)服務，帶動企業流程自動化
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6697_107</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">協助導入軟體機器人(RPA)服務，帶動企業流程自動化
 隨著數位化技術演變以及勞動力成本飆升，東捷協助人壽業客戶導入流程自動化機器人(RPA,
 RoboticProcessAutomation)，替代人員操作既定工作、執行預定作業流程，協助企業流程自
 動化，增加數位勞動力並改善例行工作品質，進而降低企業成本。
@@ -3125,13 +3223,13 @@
 全球景氣擴張減緩，經濟預測機構IHS預測108年全球經濟成長率為3.0%，在國際情勢方
 面，美國貿易政策不確定性、新興市場金融情勢惡化、中國經濟金融風險及地緣政治風險等4
 -2-
-</t>
-  </si>
-  <si>
-    <t>6811_111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6811_111</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
 71
 而在組織年度重點投資項目時，有超過4成的企業會將投資放在資訊安全相
 關項目上，另外有2成的企業會投資在跟雲端及諸如人工智慧，大數據等新興科
@@ -3227,13 +3325,13 @@
 其他
 自動駕駛
 組織最欠缺(該導入而未導入)的科技
-</t>
-  </si>
-  <si>
-    <t>6874_110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6874_110</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
 -54-
 代理經銷品牌
 產品應用簡介
@@ -3279,13 +3377,13 @@
 A.ESG數位化管理系統
 協助企業提供彈性自訂ESG項目資料收集格式，提供彈性資料管理樣式，
 管理企業因應ESG所需呈現有關數字資料素材；透過系統彈性設定規則，有效
-</t>
-  </si>
-  <si>
-    <t>6874_111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6874_111</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
 -65-
 代理經銷品牌
 產品應用簡介
@@ -3336,13 +3434,13 @@
 EZSO任你收系統
 1.企業資料收集平台，彈性自訂財務附註資料收集格
 式及產出樣式。
-</t>
-  </si>
-  <si>
-    <t>6916_111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6916_111</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
 72
 的智能工廠發展，除了已經使用的PLM、EPR、CRM、BI及管理儀表板等IT系統外，
 2021年公司導入RPA(RoboticProcessAutomation)智能作業系統到各個部門，透過
@@ -3428,13 +3526,13 @@
 遊戲機、電梯、機車儀表、混音器、影音系統、電解水機、縫
 紉機、家用電表、瓦斯表、智能電表、焊接器、樂器調音器、
 照明、硬碟存取、印表機、充電樁、智能家電等。
-</t>
-  </si>
-  <si>
-    <t>8028_111</t>
-  </si>
-  <si>
-    <t>5.本公司董事、經理人及公司治理主管進修與訓練情形
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8028_111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.本公司董事、經理人及公司治理主管進修與訓練情形
 職稱
 姓
 名
@@ -3592,13 +3690,13 @@
 6小時
 個資法實戰作業
 6小時
-38</t>
-  </si>
-  <si>
-    <t>8077_109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">洛碁實業股份有限公司
+38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8077_109</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">洛碁實業股份有限公司
 GREENWORLDHOTELSCO.,LTD.
 (2)本部與現場的溝通效率化
 目前，本部與現場之間的溝通存在諸多溝通疏漏。透過明確定義本部及現
@@ -3649,13 +3747,13 @@
 為實現上述，將作為集團專案實行。
 ③導入會員系統
 58
-</t>
-  </si>
-  <si>
-    <t>8077_110</t>
-  </si>
-  <si>
-    <t>洛碁實業股份有限公司
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8077_110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>洛碁實業股份有限公司
 GREENWORLDHOTELSCO.,LTD.
 2作業流程效率化及系統化
 目前飯店現場櫃檯及本部會計部門業務,多數為勞動集約型業務,所需人數眾多。從根
@@ -3736,13 +3834,13 @@
 南港漢來皇家鬱金香酒店
 445
 111/12/31
-58</t>
-  </si>
-  <si>
-    <t>8077_111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
+58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8077_111</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
 標準的同時，亦導入以RPA為首的自動化系統進而統整體制，降低疫情後的人
 力成本以提高獲利。
 5.應用防疫經驗，確保營運正常。國境開放旅遊恢復正常，但並不表示感染就不
@@ -3805,13 +3903,13 @@
 60
 洛碁實業股份有限公司
 GREENWORLDHOTELSCO.,LTD.
-</t>
-  </si>
-  <si>
-    <t>8099_108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">頁83
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8099_108</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">頁83
 伍、營運概況
 
 人工智慧
@@ -3881,13 +3979,13 @@
 董事
 境外金融中心經濟實質法與台資企業與個人因應之
 董事
-</t>
-  </si>
-  <si>
-    <t>8099_109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">頁3
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8099_109</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">頁3
 壹、致股東報告書
 續優化管理與服務制度，建立更完備的資訊服務體系，與顧客共同打造高競爭力的資訊
 環境。
@@ -3918,13 +4016,13 @@
 大世科技(上海)己於108年縮編轉型，除持續扮演協助大世科母公司承接及服務兩岸客戶
 及商機之角色外，並擬代理新的雲端產品，期重新出發，爭取商機，轉虧為盈。
 四、子公司協志聯合科技公司：
-</t>
-  </si>
-  <si>
-    <t>8099_110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">頁3
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8099_110</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">頁3
 壹、致股東報告書
 ICTCompanyAward)
 
@@ -4027,13 +4125,13 @@
 設備等，另外還有安裝、設定和維運等事務。本
 公司提供虛擬化建置管理與服務、監控管理導入
 服務、企業IT流程自動化、微軟Azure混合雲、
-</t>
-  </si>
-  <si>
-    <t>8099_111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">頁3
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8099_111</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">頁3
 壹、致股東報告書
 3.內部營運流程:
 針對現有核心業務營運作業進行數位優化，致力於業務訂單及營收銷貨前置預估管理、
@@ -4169,13 +4267,13 @@
 大公有雲、數據管理、混合雲資料中心、備份上
 雲、雲端災難復原、雲原生容器平台管理、ＡＩ
 應用等，也提供雲端網路規劃及雲端安全防護、
-</t>
-  </si>
-  <si>
-    <t>8103_110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8103_110</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
 -6-
 台」量化數據管理追求最大綜效，以達成回饋股東及企業永續經
 營的最高目標。
@@ -4247,13 +4345,13 @@
 合，切入新產業生態系的領域來突破未來發展瓶頸，達成企
 業永續成長。
 -96-
-</t>
-  </si>
-  <si>
-    <t>8103_111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8103_111</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
 -6-
 應用，提升產品附加價值及獲利能力。
 多元化的製造供應鏈，機動調度產能，滿足客戶對於區域供應鏈
@@ -4309,13 +4407,13 @@
 色產品、環境永續及員工關懷與培育等層面，持續強化公司
 體質，實踐邁向永續企業之路。
 -95-
-</t>
-  </si>
-  <si>
-    <t>8234_109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8234_109</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
 壹、致股東報告書
 各位股東女士、先生們：
 一、一○九年度營業成果
@@ -4411,13 +4509,13 @@
 (7)開發不同垂直應用市場之關鍵客戶，快速切入特定專業領域，如車載、醫療、產
 業自動化、生產線自動化、工業防火牆與雲端智能服務等。
 60
-</t>
-  </si>
-  <si>
-    <t>8234_110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8234_110</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
 (6)開發VIC系列成功導入半導體及封裝產業之RPA智能機應用
 (7)開發NexMOV品牌之AMR(自主性電動車)於電子業廠域搬運系統
 (8)開發NexDATA品牌之企業地端型數據中台，支持微服務架構並整合OT/IT各資料庫形
@@ -4531,13 +4629,13 @@
 作業託外加工
 託外加工
 79
-</t>
-  </si>
-  <si>
-    <t>8234_111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8234_111</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
 3.一一一年度開發成功之技術與產品如下：
 (1)400G高階網路交換器
 (2)5G分散式行動基地台回傳路由器(DCSG)
@@ -4645,13 +4743,13 @@
 作業託外加工
 託外加工
 85
-</t>
-  </si>
-  <si>
-    <t>8411_110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">附表二：總經理、副總經理、協理、各部門及分支機構主管之進修情形統計表
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8411_110</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">附表二：總經理、副總經理、協理、各部門及分支機構主管之進修情形統計表
 職稱
 姓名
 就任日期
@@ -4766,13 +4864,13 @@
 遵合規的發展與數位趨勢
 6
 -98-
-</t>
-  </si>
-  <si>
-    <t>8916_110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.資訊與科技：
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8916_110</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2.資訊與科技：
 1)人工智慧：今日之人工智慧技術已普及且開源，運用人工智慧的門檻降低，
 資訊處已規劃將開源之人工智慧技術應用在商業分析、異常偵測、排程預估、
 成本結構分析與毛利預估等場域。未來進一步規劃與協力雲端廠商合作，將
@@ -4812,13 +4910,13 @@
 功能性再向上推升，依循此產業趨勢發展。
 羽絨原料
 -124-
-</t>
-  </si>
-  <si>
-    <t>8916_111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">壹、致股東報告書
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8916_111</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">壹、致股東報告書
 各位股東女士、先生：
 在歷經多年的推動轉型成衣，2022年終於展現我們團隊努力的結果，成衣事業全年營
 收以新台幣58億元創歷史新高，占比由46%上揚至56%，跨越過半，光隆成功轉型為成
@@ -4985,13 +5083,13 @@
 生不同於以往的需求。因應全球環境變遷和市場需求，對於特殊功能羽絨的需
 求逐漸增加。改變羽絨僅用於保暖的角色，甚至賦予特殊目的性，例如撥水、
 -123-
-</t>
-  </si>
-  <si>
-    <t>9904_110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">寶成工業POUCHEN
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9904_110</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">寶成工業POUCHEN
 4
 同時維護良好的工會互動關係，藉以穩
 固勞資和諧，營造包容、和睦和友善的
@@ -5061,13 +5159,13 @@
 在以消費者為核心的通路系統
 中，實體門店的新定位為建立與提
 升互動式體驗的重要觸點，本公司
-</t>
-  </si>
-  <si>
-    <t>9904_111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">寶成工業POUCHEN
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9904_111</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">寶成工業POUCHEN
 4
 極有效的溝通模式。112年度將繼
 續舉辦員工活動、參與社區服務與
@@ -5140,13 +5238,13 @@
 ■運動用品零售及品牌代理方面：
 1.精耕細作實體網絡
 對於尋求親自探索產品與體驗服
-</t>
-  </si>
-  <si>
-    <t>9933_110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110年集團主要新取得工程包括中油大林石化油品儲運中心41座常壓儲槽興建統包工程、
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9933_110</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">110年集團主要新取得工程包括中油大林石化油品儲運中心41座常壓儲槽興建統包工程、
 中油大林石化油品儲運中心17座油槽公用系統統包工程、泉州國亨聚丙烯/丙烷脫氫專案
 統包工程、SASA純對苯⼆甲酸設計採購服務專案、⻑春電⼦級化學廠細部設計專案、李⻑
 榮化工電⼦級異丙醇細部設計專案、森霸電力第⼆期燃氣複循環發電計畫統包工程、PTFIMS
@@ -5248,13 +5346,13 @@
 (j)經由產學合作，提升技術能力及人才培養。
 108
 中鼎工程110年年報
-</t>
-  </si>
-  <si>
-    <t>9933_111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中鼎工程111年年報
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9933_111</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">中鼎工程111年年報
 5
 2.機器人及新工法的開發與應用
 ．RPA流程機器人：應用RPA(RoboticProcessAutomation)流程機器人將資料數位化，以利員工
@@ -5391,197 +5489,117 @@
 司之⻑期⽬標。
 中鼎工程111年年報
 106
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42
-42
-四、會計師公費資訊：
-(一)會計師公費資訊及級距表
-會計師公費資訊級距表
-事務所名稱
-會計師姓名
-查核期間
-備
-註
-資誠聯合會計師事務所
-張志安
-吳郁隆
-2019.1.1~2019.12.31
-－
-金額單位：新台幣仟元
-公費項目
-金額級距
-審計公費
-非審計公費
-合計
-1
-低於2,000仟元
-2
-2,000仟元（含）～4,000仟元
-3,171
-3,171
-3
-4,000仟元（含）～6,000仟元
-5,510
-5,510
-4
-6,000仟元（含）～8,000仟元
-5
-8,000仟元（含）～10,000仟元
-6
-10,000仟元（含）以上
-(二)給付簽證會計師、簽證會計師所屬事務所及其關係企業之非審計公費為審計公費之四分之
-一以上者，應揭露審計與非審計公費金額及非審計服務內容：
-金額單位：新台幣仟元
-事務所
-名
-稱
-會計師
-姓
-名
-審計
-公費
-非審計公費
-會計師
-查核期間
-備
-註
-制度
-設計
-工商
-登記
-人力
-資源
-其他
-小計
-資誠聯合
-會計師
-事務所
-張志安
-5,510
-－
-－
-－
-3,171
-3,171
-2019
-年度
-非審計公費之內
-容分別為：
-(1)移轉訂價服務
-公費610仟元
-(2)CSR
-專案費
-1,051仟元
-(3)稅務分析諮詢
-服務費300仟
-元
-(4)RPA專案服務
-費800仟元
-(5)其他簽證公費
-410仟元
-吳郁隆
-(三)更換會計師事務所且更換年度所給付之審計公費較更換前一年度之審計公費減少者，應揭
-露更換前後審計公費金額及原因：
-不適用。
-(四)審計公費較前一年度減少達百分之十以上者，應揭露審計公費減少金額、比例及原因：
-不適用。
-五、更換會計師資訊：
-本公司最近二年度及其期後期間未有更換會計師之情形。
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-</sst>
+</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="3">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-  </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="4" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="新細明體"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="11"/>
+      <x:name val="新細明體"/>
+      <x:family val="1"/>
+      <x:charset val="136"/>
+    </x:font>
+    <x:font>
+      <x:sz val="9"/>
+      <x:name val="新細明體"/>
+      <x:family val="3"/>
+      <x:charset val="136"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="3">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFFF00"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+  </x:fills>
+  <x:borders count="2">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="3">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="4">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="top"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="一般" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5868,568 +5886,614 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C68"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>77</v>
-      </c>
-      <c r="B39" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>87</v>
-      </c>
-      <c r="B44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>93</v>
-      </c>
-      <c r="B47" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>95</v>
-      </c>
-      <c r="B48" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>97</v>
-      </c>
-      <c r="B49" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>101</v>
-      </c>
-      <c r="B51" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>103</v>
-      </c>
-      <c r="B52" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>105</v>
-      </c>
-      <c r="B53" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>107</v>
-      </c>
-      <c r="B54" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>109</v>
-      </c>
-      <c r="B55" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>111</v>
-      </c>
-      <c r="B56" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>113</v>
-      </c>
-      <c r="B57" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>115</v>
-      </c>
-      <c r="B58" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>117</v>
-      </c>
-      <c r="B59" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>119</v>
-      </c>
-      <c r="B60" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>121</v>
-      </c>
-      <c r="B61" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>123</v>
-      </c>
-      <c r="B62" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>125</v>
-      </c>
-      <c r="B63" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>127</v>
-      </c>
-      <c r="B64" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>129</v>
-      </c>
-      <c r="B65" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>131</v>
-      </c>
-      <c r="B66" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>133</v>
-      </c>
-      <c r="B67" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>135</v>
-      </c>
-      <c r="B68" t="s">
-        <v>136</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:C68" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:C68"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <x:selection activeCell="E17" sqref="E17"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A2" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A3" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A4" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A5" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A6" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A7" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A8" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A9" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A10" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A11" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A12" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A13" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A14" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A15" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A17" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A18" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A19" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A20" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A21" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A22" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A23" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A24" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A25" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A26" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A27" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A28" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A29" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A30" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A31" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A32" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A33" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A34" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A35" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A36" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A37" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <x:c r="A38" s="3" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B38" s="3" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C38" s="3" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A39" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A40" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A41" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A42" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A43" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A44" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A45" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A46" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A47" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A48" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A49" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A50" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A51" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A52" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B52" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C52" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A53" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B53" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A54" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="B54" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A55" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="B55" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A56" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B56" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A57" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="B57" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A58" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="B58" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A59" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="B59" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A60" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="B60" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A61" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="B61" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A62" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="B62" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A63" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="B63" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A64" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="B64" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A65" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="B65" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A66" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B66" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A67" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="B67" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A68" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="B68" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:autoFilter ref="A1:C68"/>
+  <x:phoneticPr fontId="2" type="noConversion"/>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>